--- a/Semana1.xlsx
+++ b/Semana1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Business inteligence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D360A1-CED7-4D41-AFF9-B406CCE8EF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A21330-2436-4925-B4C6-23450EA3F93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="365RE" sheetId="1" r:id="rId1"/>
@@ -21,21 +21,26 @@
     <sheet name="Tasks 8,9" sheetId="5" r:id="rId6"/>
     <sheet name="Task 10" sheetId="6" r:id="rId7"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId8"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'365RE'!$K$5:$AA$201</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">'Tasks 6,7'!$C$10:$C$17</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Tasks 6,7'!$C$10:$C$18</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Tasks 6,7'!$C$18</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Tasks 6,7'!$F$10:$F$18</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'Tasks 6,7'!$H$10</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Tasks 6,7'!$C$18</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Tasks 6,7'!$H$10</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">('Tasks 6,7'!$C$10:$C$18,'Tasks 6,7'!$F$10:$F$18)</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Tasks 6,7'!$C$10:$C$17</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Tasks 6,7'!$C$18</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Tasks 6,7'!$F$10:$F$18</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Tasks 6,7'!$H$10</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Tasks 6,7'!$C$10:$C$17</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'365RE'!$H$6:$H$272</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'365RE'!$H$6:$H$272</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'Tasks 6,7'!$C$17</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'Tasks 6,7'!$D$10:$D$18</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'Tasks 6,7'!$E$10:$E$18</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'Tasks 6,7'!$F$10:$F$17</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'Tasks 6,7'!$F$10:$F$18</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'365RE'!$H$6:$H$272</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Tasks 6,7'!$C$10:$C$17</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Tasks 6,7'!$C$18</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Tasks 6,7'!$H$10</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Tasks 6,7'!$C$10:$C$16</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Tasks 6,7'!$C$17</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Tasks 6,7'!$C$10:$C$16</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'Tasks 6,7'!$C$10:$C$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -54,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2912" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2918" uniqueCount="589">
   <si>
     <t>Office</t>
   </si>
@@ -1868,12 +1873,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Tabla de distribucion de frecuencia</t>
-  </si>
-  <si>
-    <t>Tarea2:</t>
-  </si>
-  <si>
     <t>Media</t>
   </si>
   <si>
@@ -1901,13 +1900,49 @@
     <t>Frecuancia relativa</t>
   </si>
   <si>
-    <t>Frecuandia acumulada</t>
-  </si>
-  <si>
     <t>Covarianza</t>
   </si>
   <si>
     <t>Coeficiente correlación</t>
+  </si>
+  <si>
+    <t>Frecuencia acumulada</t>
+  </si>
+  <si>
+    <t>Podemos obervar en ambos gráficos que la cola tiene una distribución a la derecha, y lo podemos verificar con el coeficiente de asimetría que es mayor a 0,  por lo tanto también podemos concluir que tiene datos atípicos a la derecha y se puede representar más claro en el gráfico de la derecha</t>
+  </si>
+  <si>
+    <t>Task 4</t>
+  </si>
+  <si>
+    <t>Se puede concluir con el gráfico de disperción que la mayor intensidad de los datos está entre las casas con área entre 600 - 800 y precio entre 140.000 y 300.000, ade,ás observamos que hay una tendencia alcista, es decir, entre mayor el área mator el precio, También se pueden representar algunos datos atípicos que ya nos mostrarón anteriormente los diagramas.</t>
+  </si>
+  <si>
+    <t>La covarianza en este caso al ser positiva representa una correlación directa entre los datos, es decir que el precio es directamente proporcional al área lo cual se pudo evidenciar en el gráfico de disperción</t>
+  </si>
+  <si>
+    <t>El coeficiente de relación nos dice si la correlación de los datos es debil o fuerten este valor se representa entre -1 y 1, entre más cerca esté al uno positivo es una correlación fuerte, y su opuesto correlación debil, en este caso tenemos una correlación fuerte y se pudo apreciar en ek gráfico de dispersión</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indica la simetría de la distribución en este caso al ser mayor a 0 representa una asimetría positiva, es decir con una cola hacía la derecha </t>
+  </si>
+  <si>
+    <t>Aunque este valor es complejo de interpretar es la media de las diferencias con la media elevada al cuadrado.</t>
+  </si>
+  <si>
+    <t>Se mide cuanto de separan los datos de la media, las distancias que tienen, en este caso podemos observar que hay una distancia fuerte entre los datos.</t>
+  </si>
+  <si>
+    <t>La moda es el valor que más se repite, y en nuestro conjuntos de datos tenemos que es el $460.001,26.</t>
+  </si>
+  <si>
+    <t>La mediana es un valor que se encuentra a la mitad de los otros valores y para tenerlo los valores deben estar ordenados de mayor a menor, para estos datos el precio de la mitad es de $249.075,66.</t>
+  </si>
+  <si>
+    <t>La media nos representa el promedio, en este caso el promedio de una propiedad es de $281.171,90.</t>
+  </si>
+  <si>
+    <t>Acumulada</t>
   </si>
 </sst>
 </file>
@@ -1988,7 +2023,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2016,6 +2051,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2070,7 +2111,7 @@
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2171,11 +2212,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="44" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -2201,6 +2237,21 @@
     <xf numFmtId="9" fontId="6" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Estilo 1" xfId="1" xr:uid="{A86A820E-EDCD-4F2B-AD0C-AD3183F5A330}"/>
@@ -2242,6 +2293,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Task5</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2255,11 +2331,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -2281,8 +2357,9 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
               <a:noFill/>
+              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2291,17 +2368,56 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-          </c:marker>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'365RE'!$G$6:$G$272</c:f>
@@ -3925,7 +4041,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C560-43B2-8DB1-6EB79274D65B}"/>
+              <c16:uniqueId val="{00000000-6A03-47E3-BE10-013CD9BFAD3D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3937,11 +4053,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1475531935"/>
-        <c:axId val="1475534847"/>
+        <c:axId val="281982799"/>
+        <c:axId val="281984047"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1475531935"/>
+        <c:axId val="281982799"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3951,7 +4067,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -3961,15 +4077,70 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>AREA</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="dk1">
                 <a:lumMod val="25000"/>
                 <a:lumOff val="75000"/>
               </a:schemeClr>
@@ -3983,9 +4154,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -3998,12 +4169,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1475534847"/>
+        <c:crossAx val="281984047"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1475534847"/>
+        <c:axId val="281984047"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4013,7 +4184,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -4023,15 +4194,70 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>PRECIO</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="dk1">
                 <a:lumMod val="25000"/>
                 <a:lumOff val="75000"/>
               </a:schemeClr>
@@ -4045,9 +4271,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -4060,12 +4286,26 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1475531935"/>
+        <c:crossAx val="281982799"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
-        <a:noFill/>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -4085,11 +4325,11 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -4116,12 +4356,676 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tasks 6,7'!$C$10:$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Russia</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Mexico</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Canada</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tasks 6,7'!$D$10:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4C06-45BE-BA62-040B00282294}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Serie2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tasks 6,7'!$C$10:$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Russia</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Mexico</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Canada</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tasks 6,7'!$G$10:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.90769230769230769</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0256410256410256E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0256410256410256E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0512820512820513E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.1282051282051282E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.1282051282051282E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.1282051282051282E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5897435897435895E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4C06-45BE-BA62-040B00282294}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="623127480"/>
+        <c:axId val="623126496"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="623127480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="623126496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="623126496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="140"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="623127480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
   <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Task2</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1600" b="1" i="0" u="none" strike="noStrike" spc="100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF">
+                  <a:lumMod val="95000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Task2</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
     <cx:plotArea>
-      <cx:plotAreaRegion/>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{E1A2B03B-6EE9-40FD-AFBB-32D360E90A35}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.2</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Task3</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1600" b="1" i="0" u="none" strike="noStrike" spc="100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF">
+                  <a:lumMod val="95000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Task3</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{0BFF810F-FA5F-4CB9-B771-BA1543942F31}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r">
+              <cx:binSize val="100000"/>
+            </cx:binning>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
     </cx:plotArea>
   </cx:chart>
 </cx:chartSpace>
@@ -4207,16 +5111,95 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="370">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900"/>
@@ -4226,17 +5209,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4244,26 +5226,34 @@
     </cs:spPr>
     <cs:defRPr sz="900"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:chartArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
     <cs:defRPr sz="1000"/>
   </cs:chartArea>
@@ -4272,9 +5262,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900"/>
@@ -4314,12 +5303,40 @@
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
@@ -4329,7 +5346,7 @@
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -4341,13 +5358,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -4362,7 +5379,7 @@
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -4375,7 +5392,7 @@
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -4383,7 +5400,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="28575" cap="rnd">
@@ -4399,17 +5416,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -4421,20 +5437,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -4448,14 +5464,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -4464,14 +5480,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4483,7 +5498,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -4491,14 +5506,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4510,17 +5525,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+            <a:lumOff val="10000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -4532,14 +5547,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -4548,17 +5563,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -4567,27 +5581,26 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -4595,17 +5608,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4618,7 +5630,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat">
@@ -4634,12 +5646,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400"/>
+    <cs:defRPr sz="1600" b="1" spc="100">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -4648,7 +5667,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
@@ -4664,14 +5683,634 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900"/>
   </cs:trendlineLabel>
   <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="370">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" spc="100">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="246">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -4682,90 +6321,9 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -4773,16 +6331,16 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4816,39 +6374,66 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="1"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="1"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="1"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:alpha val="70000"/>
+          </a:schemeClr>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -4857,18 +6442,21 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="1"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
@@ -4896,16 +6484,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -4920,7 +6507,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -4929,9 +6516,9 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -4945,15 +6532,541 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1">
+              <a:alpha val="0"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="328">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+      </a:gradFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
+          <a:schemeClr val="lt1"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -4969,9 +7082,8 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4985,12 +7097,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -5002,9 +7108,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5019,14 +7125,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -5040,10 +7145,7 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
+          <a:schemeClr val="lt1"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -5057,14 +7159,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -5073,14 +7174,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -5088,7 +7188,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -5101,11 +7201,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -5113,14 +7223,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5132,12 +7242,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -5153,7 +7270,6 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -5162,9 +7278,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -5177,15 +7292,24 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+      </a:gradFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
+          <a:schemeClr val="lt1"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -5196,22 +7320,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -5221,12 +7333,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -5235,25 +7341,25 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>701040</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>125730</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="3" name="Gráfico 2">
+            <xdr:cNvPr id="2" name="Gráfico 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CD208F8-CB7B-4F65-BBAC-D3806CB35DE7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B199A83A-7BAB-419C-8EAD-31C4A5A15FE2}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5280,7 +7386,85 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5935980" y="925830"/>
+              <a:off x="533400" y="1539240"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100"/>
+                <a:t>Este gráfico no está disponible en su versión de Excel.
+Si edita esta forma o guarda el libro en un formato de archivo diferente, el gráfico no se podrá utilizar.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Gráfico 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72897C00-4B0D-46FB-A560-9F1117871B04}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6073140" y="1539240"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5318,27 +7502,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>140970</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BD3F62F-C892-4445-8423-E1406F756FEF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84AA0035-D7A8-45CD-9436-F1C6849CF950}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5353,6 +7539,553 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>180533</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85363C89-D068-4A92-9473-D7D3739472C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Flecha: a la derecha 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3860819A-8593-4310-9A9C-A4C041234DEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2948940" y="1188720"/>
+          <a:ext cx="289560" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-CO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Flecha: a la derecha 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57A1CABA-C002-4310-AB49-FA77D6AD9B35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2956560" y="1371600"/>
+          <a:ext cx="289560" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-CO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Flecha: a la derecha 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE44D7C0-D93D-4BB0-A7E6-269099F05AF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2964180" y="1539240"/>
+          <a:ext cx="289560" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-CO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Flecha: a la derecha 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F6EABA9-08EB-4AC4-920F-F584894E7E9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2948940" y="1729740"/>
+          <a:ext cx="289560" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-CO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Flecha: a la derecha 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2A16FE3-77E8-41D3-84C4-2E59074986B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2941320" y="1920240"/>
+          <a:ext cx="289560" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-CO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Flecha: a la derecha 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{377112BE-877A-4157-B008-F28F9018F5DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2941320" y="2110740"/>
+          <a:ext cx="289560" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-CO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="365RE"/>
+      <sheetName val="Gender"/>
+      <sheetName val="Location"/>
+      <sheetName val="Age"/>
+      <sheetName val="Age and price"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>California</v>
+          </cell>
+          <cell r="C7">
+            <v>119</v>
+          </cell>
+          <cell r="F7">
+            <v>0.65745856353591159</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>Nevada</v>
+          </cell>
+          <cell r="C8">
+            <v>17</v>
+          </cell>
+          <cell r="F8">
+            <v>0.75138121546961323</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>Oregon</v>
+          </cell>
+          <cell r="C9">
+            <v>11</v>
+          </cell>
+          <cell r="F9">
+            <v>0.81215469613259661</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>Arizona</v>
+          </cell>
+          <cell r="C10">
+            <v>11</v>
+          </cell>
+          <cell r="F10">
+            <v>0.87292817679557999</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11" t="str">
+            <v>Colorado</v>
+          </cell>
+          <cell r="C11">
+            <v>11</v>
+          </cell>
+          <cell r="F11">
+            <v>0.93370165745856337</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12" t="str">
+            <v>Utah</v>
+          </cell>
+          <cell r="C12">
+            <v>6</v>
+          </cell>
+          <cell r="F12">
+            <v>0.96685082872928163</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13" t="str">
+            <v>Virginia</v>
+          </cell>
+          <cell r="C13">
+            <v>4</v>
+          </cell>
+          <cell r="F13">
+            <v>0.98895027624309373</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14" t="str">
+            <v>Wyoming</v>
+          </cell>
+          <cell r="C14">
+            <v>1</v>
+          </cell>
+          <cell r="F14">
+            <v>0.99447513812154675</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v>Kansas</v>
+          </cell>
+          <cell r="C15">
+            <v>1</v>
+          </cell>
+          <cell r="F15">
+            <v>0.99999999999999978</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5655,8 +8388,8 @@
   <dimension ref="A1:AA999"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V17" sqref="V17"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5709,37 +8442,37 @@
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="51" t="s">
         <v>528</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
       <c r="J4" s="25"/>
-      <c r="K4" s="40" t="s">
+      <c r="K4" s="51" t="s">
         <v>529</v>
       </c>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="40"/>
-      <c r="X4" s="40"/>
-      <c r="Y4" s="40"/>
-      <c r="Z4" s="40"/>
-      <c r="AA4" s="40"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="51"/>
+      <c r="W4" s="51"/>
+      <c r="X4" s="51"/>
+      <c r="Y4" s="51"/>
+      <c r="Z4" s="51"/>
+      <c r="AA4" s="51"/>
     </row>
     <row r="5" spans="1:27" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="39" t="s">
@@ -45555,7 +48288,6 @@
       <c r="AA999" s="30"/>
     </row>
   </sheetData>
-  <autoFilter ref="K5:AA201" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:AA272">
     <sortCondition ref="P6:P272"/>
   </sortState>
@@ -45587,8 +48319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A7C1412-EA0B-443B-AF04-4E1F30BE9CF6}">
   <dimension ref="B1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
@@ -45683,10 +48415,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{988EDBF6-8135-42D7-A181-4E7F0B86819A}">
-  <dimension ref="B1:F12"/>
+  <dimension ref="B1:L36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
@@ -45740,77 +48472,125 @@
       <c r="D8" s="10"/>
     </row>
     <row r="9" spans="2:6" ht="12" x14ac:dyDescent="0.25">
-      <c r="B9" s="15" t="s">
-        <v>566</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>565</v>
-      </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C10" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="38">
-        <f>+COUNTIF('365RE'!$E$6:$E$272,C10)</f>
-        <v>259</v>
-      </c>
-      <c r="E10" s="41">
-        <f>+D10/$D$12</f>
-        <v>0.97003745318352064</v>
-      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="19"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C11" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="38">
-        <f>+COUNTIF('365RE'!$E$6:$E$272,C11)</f>
-        <v>8</v>
-      </c>
-      <c r="E11" s="41">
-        <f>+D11/$D$12</f>
-        <v>2.9962546816479401E-2</v>
-      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="19"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C12" s="38" t="s">
-        <v>564</v>
-      </c>
-      <c r="D12" s="38">
-        <f>+SUM(D10:D11)</f>
-        <v>267</v>
-      </c>
-      <c r="E12" s="42">
-        <f>+SUM(E10:E11)</f>
-        <v>1</v>
-      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="19"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+    </row>
+    <row r="33" spans="2:12" ht="12" x14ac:dyDescent="0.25">
+      <c r="B33" s="16" t="s">
+        <v>578</v>
+      </c>
+      <c r="C33" s="54" t="s">
+        <v>577</v>
+      </c>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="54"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="54"/>
+      <c r="K34" s="54"/>
+      <c r="L34" s="54"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="54"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="54"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C33:L36"/>
+  </mergeCells>
   <dataValidations count="1">
     <dataValidation allowBlank="1" showErrorMessage="1" sqref="B1:B2" xr:uid="{B1FC3192-AC7F-4321-8673-4F49FE1F8C37}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC30D9D-B362-4C01-82F7-1CA90CE5A76C}">
-  <dimension ref="B1:D5"/>
+  <dimension ref="B1:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView zoomScale="95" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" style="15" customWidth="1"/>
     <col min="2" max="2" width="7.33203125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" style="15" customWidth="1"/>
     <col min="4" max="4" width="18.5546875" style="15" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="8.88671875" style="15"/>
   </cols>
@@ -45835,21 +48615,71 @@
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
     </row>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C28" s="54" t="s">
+        <v>579</v>
+      </c>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="54"/>
+    </row>
+    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+    </row>
+    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
+    </row>
+    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C28:K31"/>
+  </mergeCells>
   <dataValidations count="1">
     <dataValidation allowBlank="1" showErrorMessage="1" sqref="B1:B2" xr:uid="{28797BD3-DDBC-4B39-8885-EAD538643DE2}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11D6B83C-E8B8-4DA4-8E51-8D3B78A1B9E1}">
-  <dimension ref="B1:J168"/>
+  <dimension ref="B1:J219"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
@@ -45900,222 +48730,237 @@
       <c r="I8" s="14"/>
     </row>
     <row r="9" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="47"/>
-      <c r="D9" s="48" t="s">
-        <v>574</v>
-      </c>
-      <c r="E9" s="48" t="s">
-        <v>575</v>
-      </c>
-      <c r="F9" s="48" t="s">
+      <c r="C9" s="44"/>
+      <c r="D9" s="45" t="s">
+        <v>572</v>
+      </c>
+      <c r="E9" s="45" t="s">
+        <v>573</v>
+      </c>
+      <c r="F9" s="45" t="s">
         <v>576</v>
       </c>
+      <c r="G9" s="45" t="s">
+        <v>588</v>
+      </c>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C10" s="49" t="s">
-        <v>13</v>
+      <c r="C10" s="27" t="s">
+        <v>5</v>
       </c>
       <c r="D10" s="11">
-        <f>+COUNTIF('365RE'!V6:V201,C10)</f>
-        <v>119</v>
-      </c>
-      <c r="E10" s="50">
-        <f>+D10/$D$20</f>
-        <v>0.66111111111111109</v>
-      </c>
-      <c r="F10" s="51">
+        <f>+COUNTIF('365RE'!$U$6:$U$201,C10)</f>
+        <v>177</v>
+      </c>
+      <c r="E10" s="47">
+        <f>+D10/$D$19</f>
+        <v>0.90769230769230769</v>
+      </c>
+      <c r="F10" s="48">
         <f>+E10</f>
-        <v>0.66111111111111109</v>
+        <v>0.90769230769230769</v>
+      </c>
+      <c r="G10" s="59">
+        <f>+D10/($D$19-$D$18)</f>
+        <v>0.90769230769230769</v>
       </c>
       <c r="H10" s="14"/>
     </row>
     <row r="11" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B11" s="16"/>
-      <c r="C11" s="49" t="s">
-        <v>14</v>
+      <c r="C11" s="27" t="s">
+        <v>9</v>
       </c>
       <c r="D11" s="11">
-        <f>+COUNTIF('365RE'!V7:V202,C11)</f>
-        <v>17</v>
-      </c>
-      <c r="E11" s="50">
-        <f t="shared" ref="E11:E19" si="0">+D11/$D$20</f>
-        <v>9.4444444444444442E-2</v>
-      </c>
-      <c r="F11" s="51">
+        <f>+COUNTIF('365RE'!$U$6:$U$201,C11)</f>
+        <v>2</v>
+      </c>
+      <c r="E11" s="47">
+        <f>+D11/$D$19</f>
+        <v>1.0256410256410256E-2</v>
+      </c>
+      <c r="F11" s="48">
         <f>+E11+F10</f>
-        <v>0.75555555555555554</v>
+        <v>0.91794871794871791</v>
+      </c>
+      <c r="G11" s="59">
+        <f t="shared" ref="G11:G17" si="0">+D11/($D$19-$D$18)</f>
+        <v>1.0256410256410256E-2</v>
       </c>
       <c r="H11" s="14"/>
     </row>
     <row r="12" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C12" s="49" t="s">
-        <v>18</v>
+      <c r="C12" s="27" t="s">
+        <v>7</v>
       </c>
       <c r="D12" s="11">
-        <f>+COUNTIF('365RE'!V8:V203,C12)</f>
-        <v>11</v>
-      </c>
-      <c r="E12" s="50">
+        <f>+COUNTIF('365RE'!$U$6:$U$201,C12)</f>
+        <v>2</v>
+      </c>
+      <c r="E12" s="47">
+        <f>+D12/$D$19</f>
+        <v>1.0256410256410256E-2</v>
+      </c>
+      <c r="F12" s="48">
+        <f>+E12+F11</f>
+        <v>0.92820512820512813</v>
+      </c>
+      <c r="G12" s="59">
         <f t="shared" si="0"/>
-        <v>6.1111111111111109E-2</v>
-      </c>
-      <c r="F12" s="51">
-        <f t="shared" ref="F12:F19" si="1">+E12+F11</f>
-        <v>0.81666666666666665</v>
+        <v>1.0256410256410256E-2</v>
       </c>
       <c r="H12" s="14"/>
     </row>
     <row r="13" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C13" s="49" t="s">
-        <v>15</v>
+      <c r="C13" s="27" t="s">
+        <v>6</v>
       </c>
       <c r="D13" s="11">
-        <f>+COUNTIF('365RE'!V9:V204,C13)</f>
-        <v>11</v>
-      </c>
-      <c r="E13" s="50">
+        <f>+COUNTIF('365RE'!$U$6:$U$201,C13)</f>
+        <v>4</v>
+      </c>
+      <c r="E13" s="47">
+        <f>+D13/$D$19</f>
+        <v>2.0512820512820513E-2</v>
+      </c>
+      <c r="F13" s="48">
+        <f>+E13+F12</f>
+        <v>0.94871794871794868</v>
+      </c>
+      <c r="G13" s="59">
         <f t="shared" si="0"/>
-        <v>6.1111111111111109E-2</v>
-      </c>
-      <c r="F13" s="51">
-        <f t="shared" si="1"/>
-        <v>0.87777777777777777</v>
+        <v>2.0512820512820513E-2</v>
       </c>
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C14" s="49" t="s">
-        <v>19</v>
+      <c r="C14" s="27" t="s">
+        <v>8</v>
       </c>
       <c r="D14" s="11">
-        <f>+COUNTIF('365RE'!V10:V205,C14)</f>
-        <v>11</v>
-      </c>
-      <c r="E14" s="50">
+        <f>+COUNTIF('365RE'!$U$6:$U$201,C14)</f>
+        <v>1</v>
+      </c>
+      <c r="E14" s="47">
+        <f>+D14/$D$19</f>
+        <v>5.1282051282051282E-3</v>
+      </c>
+      <c r="F14" s="48">
+        <f>+E14+F13</f>
+        <v>0.95384615384615379</v>
+      </c>
+      <c r="G14" s="59">
         <f t="shared" si="0"/>
-        <v>6.1111111111111109E-2</v>
-      </c>
-      <c r="F14" s="51">
-        <f t="shared" si="1"/>
-        <v>0.93888888888888888</v>
+        <v>5.1282051282051282E-3</v>
       </c>
       <c r="H14" s="14"/>
     </row>
     <row r="15" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C15" s="49" t="s">
-        <v>17</v>
+      <c r="C15" s="27" t="s">
+        <v>10</v>
       </c>
       <c r="D15" s="11">
-        <f>+COUNTIF('365RE'!V11:V206,C15)</f>
-        <v>6</v>
-      </c>
-      <c r="E15" s="50">
+        <f>+COUNTIF('365RE'!$U$6:$U$201,C15)</f>
+        <v>1</v>
+      </c>
+      <c r="E15" s="47">
+        <f>+D15/$D$19</f>
+        <v>5.1282051282051282E-3</v>
+      </c>
+      <c r="F15" s="48">
+        <f>+E15+F14</f>
+        <v>0.9589743589743589</v>
+      </c>
+      <c r="G15" s="59">
         <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="F15" s="51">
-        <f t="shared" si="1"/>
-        <v>0.97222222222222221</v>
+        <v>5.1282051282051282E-3</v>
       </c>
       <c r="H15" s="14"/>
       <c r="I15"/>
     </row>
     <row r="16" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C16" s="49" t="s">
-        <v>16</v>
+      <c r="C16" s="27" t="s">
+        <v>11</v>
       </c>
       <c r="D16" s="11">
-        <f>+COUNTIF('365RE'!V12:V207,C16)</f>
-        <v>3</v>
-      </c>
-      <c r="E16" s="50">
+        <f>+COUNTIF('365RE'!$U$6:$U$201,C16)</f>
+        <v>1</v>
+      </c>
+      <c r="E16" s="47">
+        <f>+D16/$D$19</f>
+        <v>5.1282051282051282E-3</v>
+      </c>
+      <c r="F16" s="48">
+        <f>+E16+F15</f>
+        <v>0.96410256410256401</v>
+      </c>
+      <c r="G16" s="59">
         <f t="shared" si="0"/>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="F16" s="51">
-        <f t="shared" si="1"/>
-        <v>0.98888888888888893</v>
-      </c>
-      <c r="G16" s="14"/>
+        <v>5.1282051282051282E-3</v>
+      </c>
       <c r="H16"/>
     </row>
     <row r="17" spans="3:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C17" s="49" t="s">
-        <v>20</v>
+      <c r="C17" s="27" t="s">
+        <v>490</v>
       </c>
       <c r="D17" s="11">
-        <f>+COUNTIF('365RE'!V13:V208,C17)</f>
-        <v>1</v>
-      </c>
-      <c r="E17" s="50">
+        <f>+COUNTIF('365RE'!$U$6:$U$201,C17)</f>
+        <v>7</v>
+      </c>
+      <c r="E17" s="47">
+        <f>+D17/$D$19</f>
+        <v>3.5897435897435895E-2</v>
+      </c>
+      <c r="F17" s="48">
+        <f>+E17+F16</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="G17" s="59">
         <f t="shared" si="0"/>
-        <v>5.5555555555555558E-3</v>
-      </c>
-      <c r="F17" s="51">
-        <f t="shared" si="1"/>
-        <v>0.99444444444444446</v>
-      </c>
-      <c r="G17" s="14"/>
+        <v>3.5897435897435895E-2</v>
+      </c>
       <c r="H17"/>
     </row>
-    <row r="18" spans="3:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C18" s="49" t="s">
-        <v>21</v>
+    <row r="18" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="46" t="s">
+        <v>571</v>
       </c>
       <c r="D18" s="11">
-        <f>+COUNTIF('365RE'!V14:V209,C18)</f>
-        <v>1</v>
-      </c>
-      <c r="E18" s="50">
-        <f t="shared" si="0"/>
-        <v>5.5555555555555558E-3</v>
-      </c>
-      <c r="F18" s="51">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G18" s="14"/>
-      <c r="H18"/>
+        <f>+COUNTIF('365RE'!$U$6:$U$201,C18)</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="47">
+        <f>+D18/$D$19</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="48"/>
+      <c r="H18" s="14"/>
+      <c r="I18"/>
     </row>
     <row r="19" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C19" s="49" t="s">
-        <v>573</v>
-      </c>
-      <c r="D19" s="11">
-        <f>+COUNTIF('365RE'!V15:V210,C19)</f>
-        <v>0</v>
+        <v>564</v>
+      </c>
+      <c r="D19" s="49">
+        <f>+SUM(D10:D18)</f>
+        <v>195</v>
       </c>
       <c r="E19" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="51">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+        <f>+SUM(E10:E18)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
       <c r="H19" s="14"/>
       <c r="I19"/>
     </row>
-    <row r="20" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="52" t="s">
-        <v>564</v>
-      </c>
-      <c r="D20" s="52">
-        <f>+SUM(D10:D19)</f>
-        <v>180</v>
-      </c>
-      <c r="E20" s="53">
-        <f>+SUM(E10:E19)</f>
-        <v>1</v>
-      </c>
-      <c r="F20" s="53"/>
-      <c r="H20" s="14"/>
+    <row r="20" spans="3:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="I20"/>
     </row>
-    <row r="21" spans="3:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="I21"/>
+    <row r="21" spans="3:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="J21"/>
     </row>
     <row r="22" spans="3:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="J22"/>
@@ -46124,439 +48969,736 @@
       <c r="J23"/>
     </row>
     <row r="24" spans="3:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E24" s="27"/>
       <c r="J24"/>
     </row>
     <row r="25" spans="3:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E25" s="27"/>
       <c r="J25"/>
     </row>
     <row r="26" spans="3:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E26" s="27"/>
       <c r="J26"/>
     </row>
     <row r="27" spans="3:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E27" s="27"/>
       <c r="J27"/>
     </row>
     <row r="28" spans="3:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E28" s="27"/>
       <c r="J28"/>
     </row>
     <row r="29" spans="3:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E29" s="27"/>
       <c r="J29"/>
     </row>
     <row r="30" spans="3:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E30" s="27"/>
       <c r="J30"/>
     </row>
     <row r="31" spans="3:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E31" s="27"/>
       <c r="J31"/>
     </row>
     <row r="32" spans="3:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E32" s="27"/>
       <c r="J32"/>
     </row>
-    <row r="33" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E33"/>
       <c r="J33"/>
     </row>
-    <row r="34" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E34"/>
       <c r="J34"/>
     </row>
-    <row r="35" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E35"/>
       <c r="J35"/>
     </row>
-    <row r="36" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E36"/>
       <c r="J36"/>
     </row>
-    <row r="37" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E37"/>
       <c r="J37"/>
     </row>
-    <row r="38" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E38"/>
       <c r="J38"/>
     </row>
-    <row r="39" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E39"/>
       <c r="J39"/>
     </row>
-    <row r="40" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E40"/>
       <c r="J40"/>
     </row>
-    <row r="41" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E41"/>
       <c r="J41"/>
     </row>
-    <row r="42" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E42"/>
       <c r="J42"/>
     </row>
-    <row r="43" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E43"/>
       <c r="J43"/>
     </row>
-    <row r="44" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E44"/>
       <c r="J44"/>
     </row>
-    <row r="45" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E45"/>
       <c r="J45"/>
     </row>
-    <row r="46" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E46"/>
       <c r="J46"/>
     </row>
-    <row r="47" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E47"/>
       <c r="J47"/>
     </row>
-    <row r="48" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="J48"/>
-    </row>
-    <row r="49" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E48"/>
+      <c r="J48" s="14"/>
+    </row>
+    <row r="49" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E49"/>
       <c r="J49" s="14"/>
     </row>
-    <row r="50" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E50"/>
       <c r="J50" s="14"/>
     </row>
-    <row r="51" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E51"/>
       <c r="J51" s="14"/>
     </row>
-    <row r="52" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E52"/>
       <c r="J52" s="14"/>
     </row>
-    <row r="53" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E53"/>
       <c r="J53" s="14"/>
     </row>
-    <row r="54" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E54"/>
       <c r="J54" s="14"/>
     </row>
-    <row r="55" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E55"/>
       <c r="J55" s="14"/>
     </row>
-    <row r="56" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E56"/>
       <c r="J56" s="14"/>
     </row>
-    <row r="57" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E57"/>
       <c r="J57" s="14"/>
     </row>
-    <row r="58" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="58" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E58"/>
       <c r="J58" s="14"/>
     </row>
-    <row r="59" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E59"/>
       <c r="J59" s="14"/>
     </row>
-    <row r="60" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E60"/>
       <c r="J60" s="14"/>
     </row>
-    <row r="61" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E61"/>
       <c r="J61" s="14"/>
     </row>
-    <row r="62" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E62"/>
       <c r="J62" s="14"/>
     </row>
-    <row r="63" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="63" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E63"/>
       <c r="J63" s="14"/>
     </row>
-    <row r="64" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="64" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E64"/>
       <c r="J64" s="14"/>
     </row>
-    <row r="65" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E65"/>
       <c r="J65" s="14"/>
     </row>
-    <row r="66" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="66" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E66"/>
       <c r="J66" s="14"/>
     </row>
-    <row r="67" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="67" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E67"/>
       <c r="J67" s="14"/>
     </row>
-    <row r="68" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="68" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E68"/>
       <c r="J68" s="14"/>
     </row>
-    <row r="69" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="69" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E69"/>
       <c r="J69" s="14"/>
     </row>
-    <row r="70" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="70" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E70"/>
       <c r="J70" s="14"/>
     </row>
-    <row r="71" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="71" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E71"/>
       <c r="J71" s="14"/>
     </row>
-    <row r="72" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="72" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E72"/>
       <c r="J72" s="14"/>
     </row>
-    <row r="73" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="73" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E73"/>
       <c r="J73" s="14"/>
     </row>
-    <row r="74" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="74" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E74"/>
       <c r="J74" s="14"/>
     </row>
-    <row r="75" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="75" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E75"/>
       <c r="J75" s="14"/>
     </row>
-    <row r="76" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="76" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E76"/>
       <c r="J76" s="14"/>
     </row>
-    <row r="77" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="77" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E77"/>
       <c r="J77" s="14"/>
     </row>
-    <row r="78" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="78" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E78"/>
       <c r="J78" s="14"/>
     </row>
-    <row r="79" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="79" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E79"/>
       <c r="J79" s="14"/>
     </row>
-    <row r="80" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="80" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E80"/>
       <c r="J80" s="14"/>
     </row>
-    <row r="81" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="81" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E81"/>
       <c r="J81" s="14"/>
     </row>
-    <row r="82" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="82" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E82"/>
       <c r="J82" s="14"/>
     </row>
-    <row r="83" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="83" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E83"/>
       <c r="J83" s="14"/>
     </row>
-    <row r="84" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="84" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E84"/>
       <c r="J84" s="14"/>
     </row>
-    <row r="85" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="85" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E85"/>
       <c r="J85" s="14"/>
     </row>
-    <row r="86" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="86" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E86"/>
       <c r="J86" s="14"/>
     </row>
-    <row r="87" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="87" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E87"/>
       <c r="J87" s="14"/>
     </row>
-    <row r="88" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="88" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E88"/>
       <c r="J88" s="14"/>
     </row>
-    <row r="89" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="89" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E89"/>
       <c r="J89" s="14"/>
     </row>
-    <row r="90" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="90" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E90"/>
       <c r="J90" s="14"/>
     </row>
-    <row r="91" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="91" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E91"/>
       <c r="J91" s="14"/>
     </row>
-    <row r="92" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="92" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E92"/>
       <c r="J92" s="14"/>
     </row>
-    <row r="93" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="93" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E93"/>
       <c r="J93" s="14"/>
     </row>
-    <row r="94" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="94" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E94"/>
       <c r="J94" s="14"/>
     </row>
-    <row r="95" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="95" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E95"/>
       <c r="J95" s="14"/>
     </row>
-    <row r="96" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="96" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E96"/>
       <c r="J96" s="14"/>
     </row>
-    <row r="97" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="97" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E97"/>
       <c r="J97" s="14"/>
     </row>
-    <row r="98" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="98" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E98"/>
       <c r="J98" s="14"/>
     </row>
-    <row r="99" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="99" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E99"/>
       <c r="J99" s="14"/>
     </row>
-    <row r="100" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="100" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E100"/>
       <c r="J100" s="14"/>
     </row>
-    <row r="101" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="101" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E101"/>
       <c r="J101" s="14"/>
     </row>
-    <row r="102" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="102" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E102"/>
       <c r="J102" s="14"/>
     </row>
-    <row r="103" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="103" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E103"/>
       <c r="J103" s="14"/>
     </row>
-    <row r="104" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="104" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E104"/>
       <c r="J104" s="14"/>
     </row>
-    <row r="105" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="105" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E105"/>
       <c r="J105" s="14"/>
     </row>
-    <row r="106" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="106" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E106"/>
       <c r="J106" s="14"/>
     </row>
-    <row r="107" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="107" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E107"/>
       <c r="J107" s="14"/>
     </row>
-    <row r="108" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="108" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E108"/>
       <c r="J108" s="14"/>
     </row>
-    <row r="109" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="109" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E109"/>
       <c r="J109" s="14"/>
     </row>
-    <row r="110" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="110" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E110"/>
       <c r="J110" s="14"/>
     </row>
-    <row r="111" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="111" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E111"/>
       <c r="J111" s="14"/>
     </row>
-    <row r="112" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="112" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E112"/>
       <c r="J112" s="14"/>
     </row>
-    <row r="113" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="113" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E113"/>
       <c r="J113" s="14"/>
     </row>
-    <row r="114" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="114" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E114"/>
       <c r="J114" s="14"/>
     </row>
-    <row r="115" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="115" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E115"/>
       <c r="J115" s="14"/>
     </row>
-    <row r="116" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="116" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E116"/>
       <c r="J116" s="14"/>
     </row>
-    <row r="117" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="117" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E117"/>
       <c r="J117" s="14"/>
     </row>
-    <row r="118" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="118" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E118"/>
       <c r="J118" s="14"/>
     </row>
-    <row r="119" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="119" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E119"/>
       <c r="J119" s="14"/>
     </row>
-    <row r="120" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="120" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E120"/>
       <c r="J120" s="14"/>
     </row>
-    <row r="121" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="121" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E121"/>
       <c r="J121" s="14"/>
     </row>
-    <row r="122" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="122" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E122"/>
       <c r="J122" s="14"/>
     </row>
-    <row r="123" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="123" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E123"/>
       <c r="J123" s="14"/>
     </row>
-    <row r="124" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="124" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E124"/>
       <c r="J124" s="14"/>
     </row>
-    <row r="125" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="125" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E125"/>
       <c r="J125" s="14"/>
     </row>
-    <row r="126" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="126" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E126"/>
       <c r="J126" s="14"/>
     </row>
-    <row r="127" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="127" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E127"/>
       <c r="J127" s="14"/>
     </row>
-    <row r="128" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="128" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E128"/>
       <c r="J128" s="14"/>
     </row>
-    <row r="129" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="129" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E129"/>
       <c r="J129" s="14"/>
     </row>
-    <row r="130" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="130" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E130"/>
       <c r="J130" s="14"/>
     </row>
-    <row r="131" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="131" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E131"/>
       <c r="J131" s="14"/>
     </row>
-    <row r="132" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="132" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E132"/>
       <c r="J132" s="14"/>
     </row>
-    <row r="133" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="133" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E133"/>
       <c r="J133" s="14"/>
     </row>
-    <row r="134" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="134" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E134"/>
       <c r="J134" s="14"/>
     </row>
-    <row r="135" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="135" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E135"/>
       <c r="J135" s="14"/>
     </row>
-    <row r="136" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="136" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E136"/>
       <c r="J136" s="14"/>
     </row>
-    <row r="137" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="137" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E137"/>
       <c r="J137" s="14"/>
     </row>
-    <row r="138" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="138" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E138"/>
       <c r="J138" s="14"/>
     </row>
-    <row r="139" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="139" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E139"/>
       <c r="J139" s="14"/>
     </row>
-    <row r="140" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="140" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E140"/>
       <c r="J140" s="14"/>
     </row>
-    <row r="141" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="141" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E141"/>
       <c r="J141" s="14"/>
     </row>
-    <row r="142" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="142" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E142"/>
       <c r="J142" s="14"/>
     </row>
-    <row r="143" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="143" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E143"/>
       <c r="J143" s="14"/>
     </row>
-    <row r="144" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="144" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E144"/>
       <c r="J144" s="14"/>
     </row>
-    <row r="145" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="145" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E145"/>
       <c r="J145" s="14"/>
     </row>
-    <row r="146" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="146" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E146"/>
       <c r="J146" s="14"/>
     </row>
-    <row r="147" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="147" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E147"/>
       <c r="J147" s="14"/>
     </row>
-    <row r="148" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="148" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E148"/>
       <c r="J148" s="14"/>
     </row>
-    <row r="149" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="149" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E149"/>
       <c r="J149" s="14"/>
     </row>
-    <row r="150" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="150" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E150"/>
       <c r="J150" s="14"/>
     </row>
-    <row r="151" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="151" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E151"/>
       <c r="J151" s="14"/>
     </row>
-    <row r="152" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="152" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E152"/>
       <c r="J152" s="14"/>
     </row>
-    <row r="153" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="153" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E153"/>
       <c r="J153" s="14"/>
     </row>
-    <row r="154" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="154" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E154"/>
       <c r="J154" s="14"/>
     </row>
-    <row r="155" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="155" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E155"/>
       <c r="J155" s="14"/>
     </row>
-    <row r="156" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="156" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E156"/>
       <c r="J156" s="14"/>
     </row>
-    <row r="157" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="157" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E157"/>
       <c r="J157" s="14"/>
     </row>
-    <row r="158" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="158" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E158"/>
       <c r="J158" s="14"/>
     </row>
-    <row r="159" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="159" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E159"/>
       <c r="J159" s="14"/>
     </row>
-    <row r="160" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="160" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E160"/>
       <c r="J160" s="14"/>
     </row>
-    <row r="161" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="161" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E161"/>
       <c r="J161" s="14"/>
     </row>
-    <row r="162" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="162" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E162"/>
       <c r="J162" s="14"/>
     </row>
-    <row r="163" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="163" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E163"/>
       <c r="J163" s="14"/>
     </row>
-    <row r="164" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="164" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E164"/>
       <c r="J164" s="14"/>
     </row>
-    <row r="165" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="165" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E165"/>
       <c r="J165" s="14"/>
     </row>
-    <row r="166" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="166" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E166"/>
       <c r="J166" s="14"/>
     </row>
-    <row r="167" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="167" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E167"/>
       <c r="J167" s="14"/>
     </row>
-    <row r="168" spans="10:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="J168" s="14"/>
+    <row r="168" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E168"/>
+    </row>
+    <row r="169" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E169"/>
+    </row>
+    <row r="170" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E170"/>
+    </row>
+    <row r="171" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E171"/>
+    </row>
+    <row r="172" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E172"/>
+    </row>
+    <row r="173" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E173"/>
+    </row>
+    <row r="174" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E174"/>
+    </row>
+    <row r="175" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E175"/>
+    </row>
+    <row r="176" spans="5:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E176"/>
+    </row>
+    <row r="177" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E177"/>
+    </row>
+    <row r="178" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E178"/>
+    </row>
+    <row r="179" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E179"/>
+    </row>
+    <row r="180" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E180"/>
+    </row>
+    <row r="181" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E181"/>
+    </row>
+    <row r="182" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E182"/>
+    </row>
+    <row r="183" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E183"/>
+    </row>
+    <row r="184" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E184"/>
+    </row>
+    <row r="185" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E185"/>
+    </row>
+    <row r="186" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E186"/>
+    </row>
+    <row r="187" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E187"/>
+    </row>
+    <row r="188" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E188"/>
+    </row>
+    <row r="189" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E189"/>
+    </row>
+    <row r="190" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E190"/>
+    </row>
+    <row r="191" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E191"/>
+    </row>
+    <row r="192" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E192"/>
+    </row>
+    <row r="193" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E193"/>
+    </row>
+    <row r="194" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E194"/>
+    </row>
+    <row r="195" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E195"/>
+    </row>
+    <row r="196" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E196"/>
+    </row>
+    <row r="197" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E197"/>
+    </row>
+    <row r="198" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E198"/>
+    </row>
+    <row r="199" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E199"/>
+    </row>
+    <row r="200" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E200"/>
+    </row>
+    <row r="201" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E201"/>
+    </row>
+    <row r="202" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E202"/>
+    </row>
+    <row r="203" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E203"/>
+    </row>
+    <row r="204" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E204"/>
+    </row>
+    <row r="205" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E205"/>
+    </row>
+    <row r="206" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E206"/>
+    </row>
+    <row r="207" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E207"/>
+    </row>
+    <row r="208" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E208"/>
+    </row>
+    <row r="209" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E209"/>
+    </row>
+    <row r="210" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E210"/>
+    </row>
+    <row r="211" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E211"/>
+    </row>
+    <row r="212" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E212"/>
+    </row>
+    <row r="213" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E213"/>
+    </row>
+    <row r="214" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E214"/>
+    </row>
+    <row r="215" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E215"/>
+    </row>
+    <row r="216" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E216"/>
+    </row>
+    <row r="217" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E217"/>
+    </row>
+    <row r="218" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E218"/>
+    </row>
+    <row r="219" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E219"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -46573,7 +49715,7 @@
   <dimension ref="B1:X189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
@@ -46678,62 +49820,80 @@
       <c r="H7" s="14"/>
     </row>
     <row r="8" spans="2:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C8" s="43" t="s">
-        <v>567</v>
-      </c>
-      <c r="D8" s="44">
+      <c r="C8" s="40" t="s">
+        <v>565</v>
+      </c>
+      <c r="D8" s="41">
         <f>+AVERAGE('365RE'!H6:H272)</f>
         <v>281171.90138576808</v>
       </c>
+      <c r="F8" s="15" t="s">
+        <v>587</v>
+      </c>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="2:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C9" s="43" t="s">
-        <v>568</v>
-      </c>
-      <c r="D9" s="44">
+      <c r="C9" s="40" t="s">
+        <v>566</v>
+      </c>
+      <c r="D9" s="41">
         <f>+MEDIAN('365RE'!H6:H272)</f>
         <v>249075.66</v>
       </c>
+      <c r="F9" s="15" t="s">
+        <v>586</v>
+      </c>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="2:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C10" s="43" t="s">
-        <v>569</v>
-      </c>
-      <c r="D10" s="44">
+      <c r="C10" s="40" t="s">
+        <v>567</v>
+      </c>
+      <c r="D10" s="41">
         <f>+_xlfn.MODE.SNGL('365RE'!H6:H272)</f>
         <v>460001.26</v>
       </c>
+      <c r="F10" s="15" t="s">
+        <v>585</v>
+      </c>
       <c r="H10" s="14"/>
     </row>
     <row r="11" spans="2:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C11" s="43" t="s">
-        <v>570</v>
-      </c>
-      <c r="D11" s="45">
+      <c r="C11" s="40" t="s">
+        <v>568</v>
+      </c>
+      <c r="D11" s="42">
         <f>+SKEW('365RE'!H6:H272)</f>
         <v>1.0960149321454733</v>
       </c>
+      <c r="F11" s="15" t="s">
+        <v>582</v>
+      </c>
       <c r="H11" s="14"/>
     </row>
     <row r="12" spans="2:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C12" s="43" t="s">
-        <v>571</v>
-      </c>
-      <c r="D12" s="46">
+      <c r="C12" s="40" t="s">
+        <v>569</v>
+      </c>
+      <c r="D12" s="43">
         <f>+_xlfn.VAR.S('365RE'!H6:H272)</f>
         <v>7942217728.6503315</v>
       </c>
+      <c r="F12" s="15" t="s">
+        <v>583</v>
+      </c>
       <c r="H12" s="14"/>
     </row>
     <row r="13" spans="2:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C13" s="43" t="s">
-        <v>572</v>
-      </c>
-      <c r="D13" s="46">
+      <c r="C13" s="40" t="s">
+        <v>570</v>
+      </c>
+      <c r="D13" s="43">
         <f>+_xlfn.STDEV.S('365RE'!H6:H272)</f>
         <v>89119.121004699831</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>584</v>
       </c>
       <c r="H13" s="14"/>
     </row>
@@ -47270,15 +50430,16 @@
     <dataValidation allowBlank="1" showErrorMessage="1" sqref="B4 B1:B2" xr:uid="{00000000-0002-0000-0300-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B1:D25"/>
+  <dimension ref="B1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
@@ -47290,56 +50451,165 @@
     <col min="5" max="16384" width="8.88671875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="15.6" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11" ht="15.6" x14ac:dyDescent="0.2">
       <c r="B1" s="7" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" ht="12" x14ac:dyDescent="0.2">
       <c r="B2" s="8" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" ht="12" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
         <v>549</v>
       </c>
       <c r="C4" s="19"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="21"/>
       <c r="C5" s="19"/>
     </row>
-    <row r="6" spans="2:4" ht="12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" ht="12" x14ac:dyDescent="0.25">
       <c r="B6" s="20"/>
       <c r="C6" s="22"/>
     </row>
-    <row r="7" spans="2:4" ht="12" x14ac:dyDescent="0.25">
-      <c r="C7" s="43" t="s">
-        <v>577</v>
-      </c>
-      <c r="D7" s="46">
+    <row r="7" spans="2:11" ht="12" x14ac:dyDescent="0.25">
+      <c r="C7" s="55" t="s">
+        <v>574</v>
+      </c>
+      <c r="D7" s="56">
         <f>+_xlfn.COVARIANCE.S('365RE'!H6:H272,'365RE'!G6:G272)</f>
         <v>24147707.289082762</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" ht="12" x14ac:dyDescent="0.25">
-      <c r="C8" s="43" t="s">
-        <v>578</v>
-      </c>
-      <c r="D8" s="46">
+      <c r="E7" s="57"/>
+      <c r="F7" s="58" t="s">
+        <v>580</v>
+      </c>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+    </row>
+    <row r="12" spans="2:11" ht="12" x14ac:dyDescent="0.25">
+      <c r="C12" s="55" t="s">
+        <v>575</v>
+      </c>
+      <c r="D12" s="56">
         <f>+CORREL('365RE'!H6:H272,'365RE'!G6:G272)</f>
         <v>0.95108733367903575</v>
       </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="E12" s="57"/>
+      <c r="F12" s="58" t="s">
+        <v>581</v>
+      </c>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F7:K10"/>
+    <mergeCell ref="F12:K17"/>
+  </mergeCells>
   <dataValidations count="1">
     <dataValidation allowBlank="1" showErrorMessage="1" sqref="B1:B2" xr:uid="{00000000-0002-0000-0400-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>